--- a/output/16_learn_rate_0.0001/hyperparams.xlsx
+++ b/output/16_learn_rate_0.0001/hyperparams.xlsx
@@ -441,16 +441,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>7.9</v>
+        <v>27.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.13</v>
+        <v>0.45</v>
       </c>
       <c r="F2" t="n">
-        <v>471</v>
+        <v>1627</v>
       </c>
       <c r="G2" t="n">
         <v>0.0001</v>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
